--- a/Code/Results/Cases/Case_4_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.67703784199</v>
+        <v>1.256212005038265</v>
       </c>
       <c r="C2">
-        <v>0.9482725657632045</v>
+        <v>0.4386981695876671</v>
       </c>
       <c r="D2">
-        <v>0.3574937934023978</v>
+        <v>0.5658366775324168</v>
       </c>
       <c r="E2">
-        <v>0.1056040666839841</v>
+        <v>0.2001110725612314</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.453691898133627</v>
+        <v>1.63782081524883</v>
       </c>
       <c r="H2">
-        <v>0.8642095855438185</v>
+        <v>1.420924937476627</v>
       </c>
       <c r="I2">
-        <v>0.6548690062924862</v>
+        <v>1.04586311862893</v>
       </c>
       <c r="J2">
-        <v>0.03347346033548959</v>
+        <v>0.08388357616349573</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8837747794205129</v>
+        <v>0.6216688249487277</v>
       </c>
       <c r="N2">
-        <v>0.7658109701536606</v>
+        <v>1.629765984340938</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.318514856871218</v>
+        <v>1.162872876921767</v>
       </c>
       <c r="C3">
-        <v>0.820419395120382</v>
+        <v>0.4062450462388938</v>
       </c>
       <c r="D3">
-        <v>0.3295585556473242</v>
+        <v>0.5624847122200549</v>
       </c>
       <c r="E3">
-        <v>0.09947125391474998</v>
+        <v>0.1998589200000573</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.326013826919194</v>
+        <v>1.618832522791877</v>
       </c>
       <c r="H3">
-        <v>0.8138749245241286</v>
+        <v>1.418822304533904</v>
       </c>
       <c r="I3">
-        <v>0.6230528772073427</v>
+        <v>1.046224515816931</v>
       </c>
       <c r="J3">
-        <v>0.03303804893436535</v>
+        <v>0.08425611392980237</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7723485866101569</v>
+        <v>0.5956517816867688</v>
       </c>
       <c r="N3">
-        <v>0.819049613550078</v>
+        <v>1.650530304693644</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.100776173036422</v>
+        <v>1.106115757843043</v>
       </c>
       <c r="C4">
-        <v>0.743007683935474</v>
+        <v>0.3865349000508047</v>
       </c>
       <c r="D4">
-        <v>0.3129919533771499</v>
+        <v>0.5606975081109056</v>
       </c>
       <c r="E4">
-        <v>0.09588294726055224</v>
+        <v>0.1997922161827361</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.251116666508963</v>
+        <v>1.608302053661305</v>
       </c>
       <c r="H4">
-        <v>0.7848712531918238</v>
+        <v>1.418309090943296</v>
       </c>
       <c r="I4">
-        <v>0.6051976774564807</v>
+        <v>1.0470802714242</v>
       </c>
       <c r="J4">
-        <v>0.03282291496367939</v>
+        <v>0.08451451135559829</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7050048386587306</v>
+        <v>0.5800121765554493</v>
       </c>
       <c r="N4">
-        <v>0.8531935196579177</v>
+        <v>1.663908204476719</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.012561776579332</v>
+        <v>1.083125769798642</v>
       </c>
       <c r="C5">
-        <v>0.7116978897941237</v>
+        <v>0.3785569010127006</v>
       </c>
       <c r="D5">
-        <v>0.3063764377889839</v>
+        <v>0.5600372932010345</v>
       </c>
       <c r="E5">
-        <v>0.09446208546760104</v>
+        <v>0.1997871833376053</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.221396769795021</v>
+        <v>1.604293392242766</v>
       </c>
       <c r="H5">
-        <v>0.7734940027592359</v>
+        <v>1.418295156328455</v>
       </c>
       <c r="I5">
-        <v>0.5983124721599467</v>
+        <v>1.04758792969394</v>
       </c>
       <c r="J5">
-        <v>0.03274768131535133</v>
+        <v>0.08462726809698573</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6777993003759519</v>
+        <v>0.5737230017987756</v>
       </c>
       <c r="N5">
-        <v>0.8674596081452215</v>
+        <v>1.669517629589464</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.997942595719167</v>
+        <v>1.079316690229803</v>
       </c>
       <c r="C6">
-        <v>0.7065121240398469</v>
+        <v>0.3772354153699666</v>
       </c>
       <c r="D6">
-        <v>0.3052857932288902</v>
+        <v>0.5599317761273142</v>
       </c>
       <c r="E6">
-        <v>0.09422856481824482</v>
+        <v>0.1997876851751172</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.216508025016296</v>
+        <v>1.603644791108408</v>
       </c>
       <c r="H6">
-        <v>0.7716305043347802</v>
+        <v>1.4183046212639</v>
       </c>
       <c r="I6">
-        <v>0.5971919232758154</v>
+        <v>1.047681811702184</v>
       </c>
       <c r="J6">
-        <v>0.03273592060193309</v>
+        <v>0.08464644169858637</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6732952998535993</v>
+        <v>0.5726837641484863</v>
       </c>
       <c r="N6">
-        <v>0.8698493696310976</v>
+        <v>1.670458595937646</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.099584503663436</v>
+        <v>1.10580514425186</v>
       </c>
       <c r="C7">
-        <v>0.7425845213597881</v>
+        <v>0.3864270875540115</v>
       </c>
       <c r="D7">
-        <v>0.312902200474042</v>
+        <v>0.5606883285963988</v>
       </c>
       <c r="E7">
-        <v>0.09586362140391813</v>
+        <v>0.1997920586364827</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.250712708228832</v>
+        <v>1.608246848794181</v>
       </c>
       <c r="H7">
-        <v>0.7847160720191511</v>
+        <v>1.418308113160492</v>
       </c>
       <c r="I7">
-        <v>0.6051032782461405</v>
+        <v>1.047086474989051</v>
       </c>
       <c r="J7">
-        <v>0.03282185086481171</v>
+        <v>0.08451600183668972</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7046370138883162</v>
+        <v>0.5799270182419534</v>
       </c>
       <c r="N7">
-        <v>0.8533845085790386</v>
+        <v>1.663983216437648</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.55286752151477</v>
+        <v>1.223913654613909</v>
       </c>
       <c r="C8">
-        <v>0.9039384707394618</v>
+        <v>0.4274632545516965</v>
       </c>
       <c r="D8">
-        <v>0.3477327679409257</v>
+        <v>0.5646246647882691</v>
       </c>
       <c r="E8">
-        <v>0.1034506933556614</v>
+        <v>0.2000058353068255</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.408893545364862</v>
+        <v>1.631038737500631</v>
       </c>
       <c r="H8">
-        <v>0.8464366878812655</v>
+        <v>1.42003827838721</v>
       </c>
       <c r="I8">
-        <v>0.6435303754292079</v>
+        <v>1.045855892339432</v>
       </c>
       <c r="J8">
-        <v>0.03331205961465855</v>
+        <v>0.08400587162804563</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.845112331077388</v>
+        <v>0.6126285320867808</v>
       </c>
       <c r="N8">
-        <v>0.7838570346917315</v>
+        <v>1.636794938189851</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.46508049412671</v>
+        <v>1.459937623822952</v>
       </c>
       <c r="C9">
-        <v>1.230910711070749</v>
+        <v>0.509669685426843</v>
       </c>
       <c r="D9">
-        <v>0.421267617363668</v>
+        <v>0.5744963498230078</v>
       </c>
       <c r="E9">
-        <v>0.1198927564526144</v>
+        <v>0.201124908897782</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.750712897979298</v>
+        <v>1.684744257804539</v>
       </c>
       <c r="H9">
-        <v>0.9843604536596615</v>
+        <v>1.429622226478273</v>
       </c>
       <c r="I9">
-        <v>0.733774315836115</v>
+        <v>1.048494153225448</v>
       </c>
       <c r="J9">
-        <v>0.03472197395613463</v>
+        <v>0.08324086570694433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.13069010213809</v>
+        <v>0.6794244396800764</v>
       </c>
       <c r="N9">
-        <v>0.6597347394364057</v>
+        <v>1.588475108345428</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.156206089674527</v>
+        <v>1.636085331372556</v>
       </c>
       <c r="C10">
-        <v>1.480536587880408</v>
+        <v>0.5711575545572032</v>
       </c>
       <c r="D10">
-        <v>0.4793876065845097</v>
+        <v>0.583067129325741</v>
       </c>
       <c r="E10">
-        <v>0.1331693524031223</v>
+        <v>0.2023750873700187</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.027116743208268</v>
+        <v>1.72978109450537</v>
       </c>
       <c r="H10">
-        <v>1.09876932134236</v>
+        <v>1.440468075995938</v>
       </c>
       <c r="I10">
-        <v>0.8115563704662492</v>
+        <v>1.053544592885814</v>
       </c>
       <c r="J10">
-        <v>0.03608441474707291</v>
+        <v>0.08282240298272825</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.349143843773703</v>
+        <v>0.7301469061413144</v>
       </c>
       <c r="N10">
-        <v>0.5770275424970919</v>
+        <v>1.556031936483002</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.476860231016474</v>
+        <v>1.716826953594307</v>
       </c>
       <c r="C11">
-        <v>1.59689479120749</v>
+        <v>0.5993745305219704</v>
       </c>
       <c r="D11">
-        <v>0.5069460124932164</v>
+        <v>0.587253807435502</v>
       </c>
       <c r="E11">
-        <v>0.1395307310323162</v>
+        <v>0.203037090495183</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.159867354894686</v>
+        <v>1.751500230349876</v>
       </c>
       <c r="H11">
-        <v>1.154362395905054</v>
+        <v>1.44623509589789</v>
       </c>
       <c r="I11">
-        <v>0.8500435819759105</v>
+        <v>1.056525183187347</v>
       </c>
       <c r="J11">
-        <v>0.03678862746649258</v>
+        <v>0.08266324316813822</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.451029571899866</v>
+        <v>0.753584577605622</v>
       </c>
       <c r="N11">
-        <v>0.5415079255293236</v>
+        <v>1.541939119867788</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.599343762847809</v>
+        <v>1.747490190891199</v>
       </c>
       <c r="C12">
-        <v>1.641431375769457</v>
+        <v>0.6100954077349456</v>
       </c>
       <c r="D12">
-        <v>0.5175643043888272</v>
+        <v>0.5888806643713167</v>
       </c>
       <c r="E12">
-        <v>0.1419917362894125</v>
+        <v>0.2033012102760772</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.21128950106376</v>
+        <v>1.75990325778065</v>
       </c>
       <c r="H12">
-        <v>1.175991375292739</v>
+        <v>1.448539241941347</v>
       </c>
       <c r="I12">
-        <v>0.8651219264319678</v>
+        <v>1.057752652241533</v>
       </c>
       <c r="J12">
-        <v>0.03706871969340853</v>
+        <v>0.0826074626524651</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.490031497048975</v>
+        <v>0.7625124083713501</v>
       </c>
       <c r="N12">
-        <v>0.528385554817266</v>
+        <v>1.536698535598706</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.572914917427397</v>
+        <v>1.740882389900037</v>
       </c>
       <c r="C13">
-        <v>1.631817301395415</v>
+        <v>0.6077848803355437</v>
       </c>
       <c r="D13">
-        <v>0.5152689764090042</v>
+        <v>0.588528446862199</v>
       </c>
       <c r="E13">
-        <v>0.1414592979634079</v>
+        <v>0.2032437295906533</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.200161090487313</v>
+        <v>1.758085556637383</v>
       </c>
       <c r="H13">
-        <v>1.171306368468379</v>
+        <v>1.448037644572906</v>
       </c>
       <c r="I13">
-        <v>0.8618511218502007</v>
+        <v>1.057483892497885</v>
       </c>
       <c r="J13">
-        <v>0.03700777779715025</v>
+        <v>0.08261927624424459</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.481612036866593</v>
+        <v>0.7605873026174379</v>
       </c>
       <c r="N13">
-        <v>0.5311966581255341</v>
+        <v>1.537822911641687</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.486914827103419</v>
+        <v>1.719347868648128</v>
       </c>
       <c r="C14">
-        <v>1.600548897780413</v>
+        <v>0.6002558254954238</v>
       </c>
       <c r="D14">
-        <v>0.5078157950314903</v>
+        <v>0.5873868187503888</v>
       </c>
       <c r="E14">
-        <v>0.1397321196639894</v>
+        <v>0.203058550450919</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.164073904029095</v>
+        <v>1.75218796803253</v>
       </c>
       <c r="H14">
-        <v>1.156129847076812</v>
+        <v>1.446422245542578</v>
       </c>
       <c r="I14">
-        <v>0.8512736284368572</v>
+        <v>1.056624184836537</v>
       </c>
       <c r="J14">
-        <v>0.03681139393089339</v>
+        <v>0.08265856406896432</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.454229502209969</v>
+        <v>0.7543180224930666</v>
       </c>
       <c r="N14">
-        <v>0.5404216064859497</v>
+        <v>1.541506046777599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.43438021292917</v>
+        <v>1.706168838566782</v>
       </c>
       <c r="C15">
-        <v>1.581460127698961</v>
+        <v>0.595648725033584</v>
       </c>
       <c r="D15">
-        <v>0.5032749597672819</v>
+        <v>0.586692939055439</v>
       </c>
       <c r="E15">
-        <v>0.1386811411242164</v>
+        <v>0.2029468728909976</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.142124100482704</v>
+        <v>1.748598806124988</v>
       </c>
       <c r="H15">
-        <v>1.146911067426799</v>
+        <v>1.44544844836193</v>
       </c>
       <c r="I15">
-        <v>0.8448620857907514</v>
+        <v>1.056110470190362</v>
       </c>
       <c r="J15">
-        <v>0.03669289176117729</v>
+        <v>0.08268321380674237</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.437513481734797</v>
+        <v>0.7504847491508002</v>
       </c>
       <c r="N15">
-        <v>0.5461156975433852</v>
+        <v>1.543774592980643</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.135389668494497</v>
+        <v>1.630820995670547</v>
       </c>
       <c r="C16">
-        <v>1.472994590853489</v>
+        <v>0.5693184870953587</v>
       </c>
       <c r="D16">
-        <v>0.4776109097713572</v>
+        <v>0.5827993169422996</v>
       </c>
       <c r="E16">
-        <v>0.1327605782766206</v>
+        <v>0.2023337027156309</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.018594213203187</v>
+        <v>1.728386597127013</v>
       </c>
       <c r="H16">
-        <v>1.095213114730171</v>
+        <v>1.440107995203732</v>
       </c>
       <c r="I16">
-        <v>0.8091083791043303</v>
+        <v>1.053363597492542</v>
       </c>
       <c r="J16">
-        <v>0.03604019782567747</v>
+        <v>0.08283343256148967</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.342540770865469</v>
+        <v>0.7286225346758783</v>
       </c>
       <c r="N16">
-        <v>0.5793932915867543</v>
+        <v>1.556966359409625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.953678686901981</v>
+        <v>1.584754239253584</v>
       </c>
       <c r="C17">
-        <v>1.407220249702391</v>
+        <v>0.5532289640132717</v>
       </c>
       <c r="D17">
-        <v>0.4621680964930022</v>
+        <v>0.5804844635449911</v>
       </c>
       <c r="E17">
-        <v>0.1292148500638817</v>
+        <v>0.2019814495256611</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.944705961169319</v>
+        <v>1.716303474620048</v>
       </c>
       <c r="H17">
-        <v>1.064451944277806</v>
+        <v>1.437045545274572</v>
       </c>
       <c r="I17">
-        <v>0.7880085789160418</v>
+        <v>1.051853834470755</v>
       </c>
       <c r="J17">
-        <v>0.03566228070099342</v>
+        <v>0.08293358041251153</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.284960835211564</v>
+        <v>0.715304072295865</v>
       </c>
       <c r="N17">
-        <v>0.6003642173770736</v>
+        <v>1.565229823980019</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.849741779357998</v>
+        <v>1.558315366928468</v>
       </c>
       <c r="C18">
-        <v>1.369647586942051</v>
+        <v>0.5439978125033349</v>
       </c>
       <c r="D18">
-        <v>0.4533897240402212</v>
+        <v>0.5791801046986791</v>
       </c>
       <c r="E18">
-        <v>0.1272053430293276</v>
+        <v>0.2017876226104818</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.902857936792117</v>
+        <v>1.709469429445875</v>
       </c>
       <c r="H18">
-        <v>1.047088430833782</v>
+        <v>1.435362498994863</v>
       </c>
       <c r="I18">
-        <v>0.7761608371864526</v>
+        <v>1.051049723801</v>
       </c>
       <c r="J18">
-        <v>0.03545277472468911</v>
+        <v>0.08299411938680379</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.252074708609115</v>
+        <v>0.7076778730290982</v>
       </c>
       <c r="N18">
-        <v>0.6126225085259307</v>
+        <v>1.570045393394707</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.814645334168461</v>
+        <v>1.549373488560946</v>
       </c>
       <c r="C19">
-        <v>1.356968578688907</v>
+        <v>0.5408762623815164</v>
       </c>
       <c r="D19">
-        <v>0.4504347507229056</v>
+        <v>0.5787431207752718</v>
       </c>
       <c r="E19">
-        <v>0.1265299279127312</v>
+        <v>0.2017235035373339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.888796536095953</v>
+        <v>1.707175395099767</v>
       </c>
       <c r="H19">
-        <v>1.041264124336749</v>
+        <v>1.4348060978879</v>
       </c>
       <c r="I19">
-        <v>0.772197261516105</v>
+        <v>1.050788486599792</v>
       </c>
       <c r="J19">
-        <v>0.0353831533062916</v>
+        <v>0.0830151211098844</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.240978246419786</v>
+        <v>0.7051016462025075</v>
       </c>
       <c r="N19">
-        <v>0.6168059522688871</v>
+        <v>1.571686611640231</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.972961172576277</v>
+        <v>1.589652170521674</v>
       </c>
       <c r="C20">
-        <v>1.414194746239218</v>
+        <v>0.5549393260711213</v>
       </c>
       <c r="D20">
-        <v>0.463801106272058</v>
+        <v>0.5807280800998456</v>
       </c>
       <c r="E20">
-        <v>0.1295891641709268</v>
+        <v>0.2020180386725841</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.952503174826148</v>
+        <v>1.71757774416497</v>
       </c>
       <c r="H20">
-        <v>1.067691962207562</v>
+        <v>1.437363431338213</v>
       </c>
       <c r="I20">
-        <v>0.7902244534032192</v>
+        <v>1.052007896171617</v>
       </c>
       <c r="J20">
-        <v>0.03570168814442809</v>
+        <v>0.08292261555634539</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.291065866755829</v>
+        <v>0.7167183015733229</v>
       </c>
       <c r="N20">
-        <v>0.5981113276517114</v>
+        <v>1.564343678431449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.512145041982649</v>
+        <v>1.725670685392345</v>
       </c>
       <c r="C21">
-        <v>1.609719702071061</v>
+        <v>0.6024663189674584</v>
       </c>
       <c r="D21">
-        <v>0.5099998367942362</v>
+        <v>0.5877210170159515</v>
       </c>
       <c r="E21">
-        <v>0.1402379702844065</v>
+        <v>0.2031125773183682</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.174641076743029</v>
+        <v>1.753915378507969</v>
       </c>
       <c r="H21">
-        <v>1.160571323577415</v>
+        <v>1.44689345852683</v>
       </c>
       <c r="I21">
-        <v>0.8543663193610413</v>
+        <v>1.056874016407015</v>
       </c>
       <c r="J21">
-        <v>0.03686870137758191</v>
+        <v>0.08264690240262595</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.462260511030806</v>
+        <v>0.7561580358810289</v>
       </c>
       <c r="N21">
-        <v>0.5377028910246402</v>
+        <v>1.540421611044451</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.870792254497928</v>
+        <v>1.815080511797873</v>
       </c>
       <c r="C22">
-        <v>1.740310670819667</v>
+        <v>0.6337363420778388</v>
       </c>
       <c r="D22">
-        <v>0.5412691949275938</v>
+        <v>0.5925329584800068</v>
       </c>
       <c r="E22">
-        <v>0.1475044189173644</v>
+        <v>0.2039062318926028</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.32661782077983</v>
+        <v>1.778704974670603</v>
       </c>
       <c r="H22">
-        <v>1.224674224486876</v>
+        <v>1.453823320072871</v>
       </c>
       <c r="I22">
-        <v>0.899256880106293</v>
+        <v>1.060630358113258</v>
       </c>
       <c r="J22">
-        <v>0.037710357518705</v>
+        <v>0.08249287986471288</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.576627032814386</v>
+        <v>0.7822402436179772</v>
       </c>
       <c r="N22">
-        <v>0.5001492954438618</v>
+        <v>1.52534722189305</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.678745107865666</v>
+        <v>1.767313696747863</v>
       </c>
       <c r="C23">
-        <v>1.670329283652507</v>
+        <v>0.6170277505344757</v>
       </c>
       <c r="D23">
-        <v>0.5244738946390441</v>
+        <v>0.5899425998167374</v>
       </c>
       <c r="E23">
-        <v>0.1435959934925322</v>
+        <v>0.2034754717777822</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.244830824869581</v>
+        <v>1.765378612085016</v>
       </c>
       <c r="H23">
-        <v>1.190125826035001</v>
+        <v>1.450060377120906</v>
       </c>
       <c r="I23">
-        <v>0.8750052214579256</v>
+        <v>1.058572634961621</v>
       </c>
       <c r="J23">
-        <v>0.03725346127546558</v>
+        <v>0.08257268873918377</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.515339021773585</v>
+        <v>0.7682916111385794</v>
       </c>
       <c r="N23">
-        <v>0.520006781851194</v>
+        <v>1.533341351517336</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.964241918138043</v>
+        <v>1.587437674028308</v>
       </c>
       <c r="C24">
-        <v>1.411040828221644</v>
+        <v>0.5541660124548002</v>
       </c>
       <c r="D24">
-        <v>0.4630625129610166</v>
+        <v>0.5806178585775683</v>
       </c>
       <c r="E24">
-        <v>0.1294198469296859</v>
+        <v>0.2020014696586721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.948976098778445</v>
+        <v>1.717001295947568</v>
       </c>
       <c r="H24">
-        <v>1.06622615367661</v>
+        <v>1.437219473371954</v>
       </c>
       <c r="I24">
-        <v>0.7892217799216752</v>
+        <v>1.051938045959083</v>
       </c>
       <c r="J24">
-        <v>0.03568384795207891</v>
+        <v>0.08292756354002151</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.288305109385689</v>
+        <v>0.7160788327126255</v>
       </c>
       <c r="N24">
-        <v>0.5991292323449855</v>
+        <v>1.564744103025401</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.215155188214624</v>
+        <v>1.395609258068077</v>
       </c>
       <c r="C25">
-        <v>1.141038978519362</v>
+        <v>0.4872415472947296</v>
       </c>
       <c r="D25">
-        <v>0.4007266052317959</v>
+        <v>0.5715947634750478</v>
       </c>
       <c r="E25">
-        <v>0.115253725070648</v>
+        <v>0.2007471094606714</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.654275192862201</v>
+        <v>1.669241972667635</v>
       </c>
       <c r="H25">
-        <v>0.9449707977640003</v>
+        <v>1.426363615221135</v>
       </c>
       <c r="I25">
-        <v>0.7075339006079275</v>
+        <v>1.047236293658841</v>
       </c>
       <c r="J25">
-        <v>0.0342873826664416</v>
+        <v>0.08342261323404543</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.052111442232395</v>
+        <v>0.661066586079599</v>
       </c>
       <c r="N25">
-        <v>0.6919046199080796</v>
+        <v>1.601010848311605</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.256212005038265</v>
+        <v>2.677037841989886</v>
       </c>
       <c r="C2">
-        <v>0.4386981695876671</v>
+        <v>0.9482725657632329</v>
       </c>
       <c r="D2">
-        <v>0.5658366775324168</v>
+        <v>0.3574937934024263</v>
       </c>
       <c r="E2">
-        <v>0.2001110725612314</v>
+        <v>0.1056040666839877</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.63782081524883</v>
+        <v>1.453691898133656</v>
       </c>
       <c r="H2">
-        <v>1.420924937476627</v>
+        <v>0.864209585543847</v>
       </c>
       <c r="I2">
-        <v>1.04586311862893</v>
+        <v>0.6548690062924862</v>
       </c>
       <c r="J2">
-        <v>0.08388357616349573</v>
+        <v>0.03347346033549314</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6216688249487277</v>
+        <v>0.8837747794205129</v>
       </c>
       <c r="N2">
-        <v>1.629765984340938</v>
+        <v>0.7658109701536588</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.162872876921767</v>
+        <v>2.318514856871275</v>
       </c>
       <c r="C3">
-        <v>0.4062450462388938</v>
+        <v>0.8204193951203251</v>
       </c>
       <c r="D3">
-        <v>0.5624847122200549</v>
+        <v>0.3295585556474663</v>
       </c>
       <c r="E3">
-        <v>0.1998589200000573</v>
+        <v>0.09947125391479261</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.618832522791877</v>
+        <v>1.326013826919223</v>
       </c>
       <c r="H3">
-        <v>1.418822304533904</v>
+        <v>0.8138749245242707</v>
       </c>
       <c r="I3">
-        <v>1.046224515816931</v>
+        <v>0.6230528772073569</v>
       </c>
       <c r="J3">
-        <v>0.08425611392980237</v>
+        <v>0.03303804893427476</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5956517816867688</v>
+        <v>0.7723485866101498</v>
       </c>
       <c r="N3">
-        <v>1.650530304693644</v>
+        <v>0.8190496135501188</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.106115757843043</v>
+        <v>2.100776173036479</v>
       </c>
       <c r="C4">
-        <v>0.3865349000508047</v>
+        <v>0.7430076839354456</v>
       </c>
       <c r="D4">
-        <v>0.5606975081109056</v>
+        <v>0.3129919533770362</v>
       </c>
       <c r="E4">
-        <v>0.1997922161827361</v>
+        <v>0.09588294726054869</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.608302053661305</v>
+        <v>1.251116666508935</v>
       </c>
       <c r="H4">
-        <v>1.418309090943296</v>
+        <v>0.7848712531918096</v>
       </c>
       <c r="I4">
-        <v>1.0470802714242</v>
+        <v>0.6051976774564736</v>
       </c>
       <c r="J4">
-        <v>0.08451451135559829</v>
+        <v>0.03282291496373801</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5800121765554493</v>
+        <v>0.7050048386587378</v>
       </c>
       <c r="N4">
-        <v>1.663908204476719</v>
+        <v>0.8531935196578466</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.083125769798642</v>
+        <v>2.012561776579332</v>
       </c>
       <c r="C5">
-        <v>0.3785569010127006</v>
+        <v>0.7116978897941522</v>
       </c>
       <c r="D5">
-        <v>0.5600372932010345</v>
+        <v>0.3063764377889697</v>
       </c>
       <c r="E5">
-        <v>0.1997871833376053</v>
+        <v>0.09446208546762946</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.604293392242766</v>
+        <v>1.221396769795106</v>
       </c>
       <c r="H5">
-        <v>1.418295156328455</v>
+        <v>0.7734940027592359</v>
       </c>
       <c r="I5">
-        <v>1.04758792969394</v>
+        <v>0.5983124721599538</v>
       </c>
       <c r="J5">
-        <v>0.08462726809698573</v>
+        <v>0.03274768131539751</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5737230017987756</v>
+        <v>0.6777993003759377</v>
       </c>
       <c r="N5">
-        <v>1.669517629589464</v>
+        <v>0.8674596081452179</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.079316690229803</v>
+        <v>1.99794259571928</v>
       </c>
       <c r="C6">
-        <v>0.3772354153699666</v>
+        <v>0.7065121240405858</v>
       </c>
       <c r="D6">
-        <v>0.5599317761273142</v>
+        <v>0.3052857932290181</v>
       </c>
       <c r="E6">
-        <v>0.1997876851751172</v>
+        <v>0.09422856481823061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.603644791108408</v>
+        <v>1.216508025016211</v>
       </c>
       <c r="H6">
-        <v>1.4183046212639</v>
+        <v>0.7716305043347944</v>
       </c>
       <c r="I6">
-        <v>1.047681811702184</v>
+        <v>0.5971919232757941</v>
       </c>
       <c r="J6">
-        <v>0.08464644169858637</v>
+        <v>0.03273592060189401</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5726837641484863</v>
+        <v>0.6732952998536206</v>
       </c>
       <c r="N6">
-        <v>1.670458595937646</v>
+        <v>0.8698493696311118</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.10580514425186</v>
+        <v>2.099584503663664</v>
       </c>
       <c r="C7">
-        <v>0.3864270875540115</v>
+        <v>0.7425845213596745</v>
       </c>
       <c r="D7">
-        <v>0.5606883285963988</v>
+        <v>0.3129022004740136</v>
       </c>
       <c r="E7">
-        <v>0.1997920586364827</v>
+        <v>0.09586362140392879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.608246848794181</v>
+        <v>1.250712708228804</v>
       </c>
       <c r="H7">
-        <v>1.418308113160492</v>
+        <v>0.7847160720192647</v>
       </c>
       <c r="I7">
-        <v>1.047086474989051</v>
+        <v>0.6051032782461405</v>
       </c>
       <c r="J7">
-        <v>0.08451600183668972</v>
+        <v>0.0328218508648046</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5799270182419534</v>
+        <v>0.7046370138883233</v>
       </c>
       <c r="N7">
-        <v>1.663983216437648</v>
+        <v>0.8533845085789711</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.223913654613909</v>
+        <v>2.55286752151477</v>
       </c>
       <c r="C8">
-        <v>0.4274632545516965</v>
+        <v>0.9039384707390639</v>
       </c>
       <c r="D8">
-        <v>0.5646246647882691</v>
+        <v>0.3477327679411246</v>
       </c>
       <c r="E8">
-        <v>0.2000058353068255</v>
+        <v>0.1034506933556756</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.631038737500631</v>
+        <v>1.408893545364947</v>
       </c>
       <c r="H8">
-        <v>1.42003827838721</v>
+        <v>0.846436687881237</v>
       </c>
       <c r="I8">
-        <v>1.045855892339432</v>
+        <v>0.6435303754292221</v>
       </c>
       <c r="J8">
-        <v>0.08400587162804563</v>
+        <v>0.03331205961458572</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6126285320867808</v>
+        <v>0.8451123310773809</v>
       </c>
       <c r="N8">
-        <v>1.636794938189851</v>
+        <v>0.7838570346917191</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.459937623822952</v>
+        <v>3.465080494126596</v>
       </c>
       <c r="C9">
-        <v>0.509669685426843</v>
+        <v>1.230910711070578</v>
       </c>
       <c r="D9">
-        <v>0.5744963498230078</v>
+        <v>0.4212676173637959</v>
       </c>
       <c r="E9">
-        <v>0.201124908897782</v>
+        <v>0.1198927564526215</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.684744257804539</v>
+        <v>1.75071289797927</v>
       </c>
       <c r="H9">
-        <v>1.429622226478273</v>
+        <v>0.9843604536597752</v>
       </c>
       <c r="I9">
-        <v>1.048494153225448</v>
+        <v>0.7337743158361079</v>
       </c>
       <c r="J9">
-        <v>0.08324086570694433</v>
+        <v>0.03472197395611332</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6794244396800764</v>
+        <v>1.13069010213809</v>
       </c>
       <c r="N9">
-        <v>1.588475108345428</v>
+        <v>0.6597347394363844</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.636085331372556</v>
+        <v>4.156206089674413</v>
       </c>
       <c r="C10">
-        <v>0.5711575545572032</v>
+        <v>1.480536587879953</v>
       </c>
       <c r="D10">
-        <v>0.583067129325741</v>
+        <v>0.4793876065846803</v>
       </c>
       <c r="E10">
-        <v>0.2023750873700187</v>
+        <v>0.1331693524030833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.72978109450537</v>
+        <v>2.027116743208296</v>
       </c>
       <c r="H10">
-        <v>1.440468075995938</v>
+        <v>1.09876932134236</v>
       </c>
       <c r="I10">
-        <v>1.053544592885814</v>
+        <v>0.811556370466235</v>
       </c>
       <c r="J10">
-        <v>0.08282240298272825</v>
+        <v>0.03608441474702673</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7301469061413144</v>
+        <v>1.349143843773703</v>
       </c>
       <c r="N10">
-        <v>1.556031936483002</v>
+        <v>0.5770275424970883</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.716826953594307</v>
+        <v>4.476860231016531</v>
       </c>
       <c r="C11">
-        <v>0.5993745305219704</v>
+        <v>1.596894791207831</v>
       </c>
       <c r="D11">
-        <v>0.587253807435502</v>
+        <v>0.5069460124933869</v>
       </c>
       <c r="E11">
-        <v>0.203037090495183</v>
+        <v>0.1395307310322842</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.751500230349876</v>
+        <v>2.159867354894601</v>
       </c>
       <c r="H11">
-        <v>1.44623509589789</v>
+        <v>1.154362395905167</v>
       </c>
       <c r="I11">
-        <v>1.056525183187347</v>
+        <v>0.8500435819758962</v>
       </c>
       <c r="J11">
-        <v>0.08266324316813822</v>
+        <v>0.03678862746647837</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.753584577605622</v>
+        <v>1.451029571899866</v>
       </c>
       <c r="N11">
-        <v>1.541939119867788</v>
+        <v>0.5415079255293165</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.747490190891199</v>
+        <v>4.599343762847752</v>
       </c>
       <c r="C12">
-        <v>0.6100954077349456</v>
+        <v>1.641431375769287</v>
       </c>
       <c r="D12">
-        <v>0.5888806643713167</v>
+        <v>0.5175643043888272</v>
       </c>
       <c r="E12">
-        <v>0.2033012102760772</v>
+        <v>0.1419917362894125</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.75990325778065</v>
+        <v>2.21128950106376</v>
       </c>
       <c r="H12">
-        <v>1.448539241941347</v>
+        <v>1.17599137529271</v>
       </c>
       <c r="I12">
-        <v>1.057752652241533</v>
+        <v>0.8651219264319749</v>
       </c>
       <c r="J12">
-        <v>0.0826074626524651</v>
+        <v>0.03706871969322378</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7625124083713501</v>
+        <v>1.490031497048932</v>
       </c>
       <c r="N12">
-        <v>1.536698535598706</v>
+        <v>0.5283855548172696</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.740882389900037</v>
+        <v>4.572914917427568</v>
       </c>
       <c r="C13">
-        <v>0.6077848803355437</v>
+        <v>1.631817301395415</v>
       </c>
       <c r="D13">
-        <v>0.588528446862199</v>
+        <v>0.5152689764087768</v>
       </c>
       <c r="E13">
-        <v>0.2032437295906533</v>
+        <v>0.1414592979633689</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.758085556637383</v>
+        <v>2.200161090487313</v>
       </c>
       <c r="H13">
-        <v>1.448037644572906</v>
+        <v>1.171306368468407</v>
       </c>
       <c r="I13">
-        <v>1.057483892497885</v>
+        <v>0.8618511218502078</v>
       </c>
       <c r="J13">
-        <v>0.08261927624424459</v>
+        <v>0.03700777779722841</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7605873026174379</v>
+        <v>1.481612036866636</v>
       </c>
       <c r="N13">
-        <v>1.537822911641687</v>
+        <v>0.5311966581255696</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.719347868648128</v>
+        <v>4.486914827103362</v>
       </c>
       <c r="C14">
-        <v>0.6002558254954238</v>
+        <v>1.600548897780584</v>
       </c>
       <c r="D14">
-        <v>0.5873868187503888</v>
+        <v>0.5078157950316324</v>
       </c>
       <c r="E14">
-        <v>0.203058550450919</v>
+        <v>0.1397321196639787</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.75218796803253</v>
+        <v>2.164073904029294</v>
       </c>
       <c r="H14">
-        <v>1.446422245542578</v>
+        <v>1.156129847076812</v>
       </c>
       <c r="I14">
-        <v>1.056624184836537</v>
+        <v>0.8512736284368643</v>
       </c>
       <c r="J14">
-        <v>0.08265856406896432</v>
+        <v>0.03681139393088273</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7543180224930666</v>
+        <v>1.454229502209969</v>
       </c>
       <c r="N14">
-        <v>1.541506046777599</v>
+        <v>0.5404216064859568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.706168838566782</v>
+        <v>4.434380212929284</v>
       </c>
       <c r="C15">
-        <v>0.595648725033584</v>
+        <v>1.581460127698961</v>
       </c>
       <c r="D15">
-        <v>0.586692939055439</v>
+        <v>0.5032749597672819</v>
       </c>
       <c r="E15">
-        <v>0.2029468728909976</v>
+        <v>0.1386811411242626</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.748598806124988</v>
+        <v>2.142124100482732</v>
       </c>
       <c r="H15">
-        <v>1.44544844836193</v>
+        <v>1.146911067426913</v>
       </c>
       <c r="I15">
-        <v>1.056110470190362</v>
+        <v>0.8448620857907514</v>
       </c>
       <c r="J15">
-        <v>0.08268321380674237</v>
+        <v>0.03669289176114532</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7504847491508002</v>
+        <v>1.437513481734797</v>
       </c>
       <c r="N15">
-        <v>1.543774592980643</v>
+        <v>0.5461156975433674</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630820995670547</v>
+        <v>4.135389668494611</v>
       </c>
       <c r="C16">
-        <v>0.5693184870953587</v>
+        <v>1.472994590853716</v>
       </c>
       <c r="D16">
-        <v>0.5827993169422996</v>
+        <v>0.4776109097713572</v>
       </c>
       <c r="E16">
-        <v>0.2023337027156309</v>
+        <v>0.1327605782765886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.728386597127013</v>
+        <v>2.018594213203158</v>
       </c>
       <c r="H16">
-        <v>1.440107995203732</v>
+        <v>1.0952131147302</v>
       </c>
       <c r="I16">
-        <v>1.053363597492542</v>
+        <v>0.8091083791043374</v>
       </c>
       <c r="J16">
-        <v>0.08283343256148967</v>
+        <v>0.03604019782559931</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7286225346758783</v>
+        <v>1.342540770865455</v>
       </c>
       <c r="N16">
-        <v>1.556966359409625</v>
+        <v>0.5793932915867579</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.584754239253584</v>
+        <v>3.953678686901924</v>
       </c>
       <c r="C17">
-        <v>0.5532289640132717</v>
+        <v>1.40722024970205</v>
       </c>
       <c r="D17">
-        <v>0.5804844635449911</v>
+        <v>0.4621680964929737</v>
       </c>
       <c r="E17">
-        <v>0.2019814495256611</v>
+        <v>0.1292148500639634</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.716303474620048</v>
+        <v>1.944705961169376</v>
       </c>
       <c r="H17">
-        <v>1.437045545274572</v>
+        <v>1.064451944277693</v>
       </c>
       <c r="I17">
-        <v>1.051853834470755</v>
+        <v>0.7880085789160276</v>
       </c>
       <c r="J17">
-        <v>0.08293358041251153</v>
+        <v>0.0356622807010254</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.715304072295865</v>
+        <v>1.284960835211578</v>
       </c>
       <c r="N17">
-        <v>1.565229823980019</v>
+        <v>0.6003642173770487</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.558315366928468</v>
+        <v>3.849741779357998</v>
       </c>
       <c r="C18">
-        <v>0.5439978125033349</v>
+        <v>1.369647586942165</v>
       </c>
       <c r="D18">
-        <v>0.5791801046986791</v>
+        <v>0.4533897240401927</v>
       </c>
       <c r="E18">
-        <v>0.2017876226104818</v>
+        <v>0.1272053430293525</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.709469429445875</v>
+        <v>1.902857936792117</v>
       </c>
       <c r="H18">
-        <v>1.435362498994863</v>
+        <v>1.047088430833782</v>
       </c>
       <c r="I18">
-        <v>1.051049723801</v>
+        <v>0.7761608371864526</v>
       </c>
       <c r="J18">
-        <v>0.08299411938680379</v>
+        <v>0.03545277472460029</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7076778730290982</v>
+        <v>1.252074708609143</v>
       </c>
       <c r="N18">
-        <v>1.570045393394707</v>
+        <v>0.6126225085259165</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.549373488560946</v>
+        <v>3.814645334168688</v>
       </c>
       <c r="C19">
-        <v>0.5408762623815164</v>
+        <v>1.356968578688736</v>
       </c>
       <c r="D19">
-        <v>0.5787431207752718</v>
+        <v>0.4504347507230193</v>
       </c>
       <c r="E19">
-        <v>0.2017235035373339</v>
+        <v>0.1265299279127312</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.707175395099767</v>
+        <v>1.888796536095924</v>
       </c>
       <c r="H19">
-        <v>1.4348060978879</v>
+        <v>1.041264124336635</v>
       </c>
       <c r="I19">
-        <v>1.050788486599792</v>
+        <v>0.7721972615161192</v>
       </c>
       <c r="J19">
-        <v>0.0830151211098844</v>
+        <v>0.03538315330645503</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7051016462025075</v>
+        <v>1.2409782464198</v>
       </c>
       <c r="N19">
-        <v>1.571686611640231</v>
+        <v>0.6168059522689333</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.589652170521674</v>
+        <v>3.972961172576277</v>
       </c>
       <c r="C20">
-        <v>0.5549393260711213</v>
+        <v>1.414194746239161</v>
       </c>
       <c r="D20">
-        <v>0.5807280800998456</v>
+        <v>0.463801106272058</v>
       </c>
       <c r="E20">
-        <v>0.2020180386725841</v>
+        <v>0.1295891641709233</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.71757774416497</v>
+        <v>1.952503174826063</v>
       </c>
       <c r="H20">
-        <v>1.437363431338213</v>
+        <v>1.067691962207675</v>
       </c>
       <c r="I20">
-        <v>1.052007896171617</v>
+        <v>0.7902244534032192</v>
       </c>
       <c r="J20">
-        <v>0.08292261555634539</v>
+        <v>0.03570168814436414</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7167183015733229</v>
+        <v>1.291065866755858</v>
       </c>
       <c r="N20">
-        <v>1.564343678431449</v>
+        <v>0.5981113276516261</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.725670685392345</v>
+        <v>4.512145041982762</v>
       </c>
       <c r="C21">
-        <v>0.6024663189674584</v>
+        <v>1.609719702071288</v>
       </c>
       <c r="D21">
-        <v>0.5877210170159515</v>
+        <v>0.5099998367946341</v>
       </c>
       <c r="E21">
-        <v>0.2031125773183682</v>
+        <v>0.1402379702843994</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.753915378507969</v>
+        <v>2.174641076743171</v>
       </c>
       <c r="H21">
-        <v>1.44689345852683</v>
+        <v>1.160571323577273</v>
       </c>
       <c r="I21">
-        <v>1.056874016407015</v>
+        <v>0.8543663193610413</v>
       </c>
       <c r="J21">
-        <v>0.08264690240262595</v>
+        <v>0.03686870137759257</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7561580358810289</v>
+        <v>1.46226051103082</v>
       </c>
       <c r="N21">
-        <v>1.540421611044451</v>
+        <v>0.5377028910246402</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.815080511797873</v>
+        <v>4.870792254498213</v>
       </c>
       <c r="C22">
-        <v>0.6337363420778388</v>
+        <v>1.740310670819497</v>
       </c>
       <c r="D22">
-        <v>0.5925329584800068</v>
+        <v>0.5412691949278212</v>
       </c>
       <c r="E22">
-        <v>0.2039062318926028</v>
+        <v>0.1475044189173502</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.778704974670603</v>
+        <v>2.326617820779887</v>
       </c>
       <c r="H22">
-        <v>1.453823320072871</v>
+        <v>1.224674224486847</v>
       </c>
       <c r="I22">
-        <v>1.060630358113258</v>
+        <v>0.899256880106293</v>
       </c>
       <c r="J22">
-        <v>0.08249287986471288</v>
+        <v>0.03771035751886842</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7822402436179772</v>
+        <v>1.576627032814372</v>
       </c>
       <c r="N22">
-        <v>1.52534722189305</v>
+        <v>0.5001492954439009</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.767313696747863</v>
+        <v>4.678745107865723</v>
       </c>
       <c r="C23">
-        <v>0.6170277505344757</v>
+        <v>1.670329283652734</v>
       </c>
       <c r="D23">
-        <v>0.5899425998167374</v>
+        <v>0.5244738946391578</v>
       </c>
       <c r="E23">
-        <v>0.2034754717777822</v>
+        <v>0.1435959934925428</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.765378612085016</v>
+        <v>2.244830824869751</v>
       </c>
       <c r="H23">
-        <v>1.450060377120906</v>
+        <v>1.190125826035001</v>
       </c>
       <c r="I23">
-        <v>1.058572634961621</v>
+        <v>0.8750052214579469</v>
       </c>
       <c r="J23">
-        <v>0.08257268873918377</v>
+        <v>0.03725346127539098</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7682916111385794</v>
+        <v>1.515339021773599</v>
       </c>
       <c r="N23">
-        <v>1.533341351517336</v>
+        <v>0.5200067818512473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.587437674028308</v>
+        <v>3.964241918138043</v>
       </c>
       <c r="C24">
-        <v>0.5541660124548002</v>
+        <v>1.411040828221871</v>
       </c>
       <c r="D24">
-        <v>0.5806178585775683</v>
+        <v>0.4630625129611587</v>
       </c>
       <c r="E24">
-        <v>0.2020014696586721</v>
+        <v>0.1294198469296894</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.717001295947568</v>
+        <v>1.948976098778445</v>
       </c>
       <c r="H24">
-        <v>1.437219473371954</v>
+        <v>1.066226153676467</v>
       </c>
       <c r="I24">
-        <v>1.051938045959083</v>
+        <v>0.7892217799216681</v>
       </c>
       <c r="J24">
-        <v>0.08292756354002151</v>
+        <v>0.0356838479521997</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7160788327126255</v>
+        <v>1.288305109385675</v>
       </c>
       <c r="N24">
-        <v>1.564744103025401</v>
+        <v>0.5991292323449713</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.395609258068077</v>
+        <v>3.215155188214624</v>
       </c>
       <c r="C25">
-        <v>0.4872415472947296</v>
+        <v>1.141038978519362</v>
       </c>
       <c r="D25">
-        <v>0.5715947634750478</v>
+        <v>0.4007266052316822</v>
       </c>
       <c r="E25">
-        <v>0.2007471094606714</v>
+        <v>0.1152537250706338</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.669241972667635</v>
+        <v>1.654275192862144</v>
       </c>
       <c r="H25">
-        <v>1.426363615221135</v>
+        <v>0.9449707977640287</v>
       </c>
       <c r="I25">
-        <v>1.047236293658841</v>
+        <v>0.7075339006079346</v>
       </c>
       <c r="J25">
-        <v>0.08342261323404543</v>
+        <v>0.03428738266639186</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.661066586079599</v>
+        <v>1.052111442232402</v>
       </c>
       <c r="N25">
-        <v>1.601010848311605</v>
+        <v>0.6919046199080796</v>
       </c>
       <c r="O25">
         <v>0</v>
